--- a/biology/Zoologie/Farineuse/Farineuse.xlsx
+++ b/biology/Zoologie/Farineuse/Farineuse.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Gonepteryx farinosa
 La Farineuse ou Poudreuse (Gonepteryx farinosa) est une espèce de lépidoptères de la famille des Pieridae, de la sous-famille des Coliadinae et du genre Gonepteryx.
@@ -512,18 +524,11 @@
           <t>Dénomination</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Gonepteryx farinosa (Zeller, 1847)
-Sous-espèces et formes
-Gonepteryx farinosa ssp chitralensis (Moore, 1906)
-Gonepteryx farinosa ssp. turcirana (Freina, 1982)
-Gonepteryx farinosa ssp. meridiorana (Freina, 1982)[1]
-Noms vernaculaires
-La Farineuse ou la Poudreuse ou le Citron farineux.
-Espèces ressemblantes
-Il est très facile de la confondre avec le Citron et le Citron de Provence dans leur aire de répartition commune.
-Les autres piéridés jaunes ont des ailes à bords arrondis alors que celles de la Farineuse, du Citron et du Citron de Provence sont en forme de feuille.
 </t>
         </is>
       </c>
@@ -549,16 +554,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Description</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La Farineuse a une envergure de 28 à 32 mm, des ailes découpées en forme de feuille, avec un dimorphisme sexuel : le mâle a des ailes antérieurs jaune vif au revers jaune clair et des ailes postérieures jaune clair sur les deux faces; la femelle est verdâtre clair sur les deux faces.
-Un point discoïdal brun marque chaque aile sur le revers, alors que c'est un point rouge sur le recto.
-Chenille
-Pondus en début de printemps, les œufs jaunes à vert clair éclosent pour donner des chenilles vertes.
-</t>
+          <t>Sous-espèces et formes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Gonepteryx farinosa ssp chitralensis (Moore, 1906)
+Gonepteryx farinosa ssp. turcirana (Freina, 1982)
+Gonepteryx farinosa ssp. meridiorana (Freina, 1982)</t>
         </is>
       </c>
     </row>
@@ -583,16 +592,18 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Dénomination</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Période de vol et hivernation
-La Farineuse vole dès son éclosion en mai à juin, en une génération puis après son hivernation.
-Elle pratique dans les régions sèches une migration verticale entre le maquis et les sapinières de montagne. Elle émerge au printemps en plaine puis migre en altitude dans la montagne et y reste les mois d'été pour redescendre à l'automne en basse altitude[2].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Rhamnus.
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Farineuse ou la Poudreuse ou le Citron farineux.
 </t>
         </is>
       </c>
@@ -618,16 +629,272 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Dénomination</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Espèces ressemblantes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est très facile de la confondre avec le Citron et le Citron de Provence dans leur aire de répartition commune.
+Les autres piéridés jaunes ont des ailes à bords arrondis alors que celles de la Farineuse, du Citron et du Citron de Provence sont en forme de feuille.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Farineuse</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Farineuse</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Farineuse a une envergure de 28 à 32 mm, des ailes découpées en forme de feuille, avec un dimorphisme sexuel : le mâle a des ailes antérieurs jaune vif au revers jaune clair et des ailes postérieures jaune clair sur les deux faces; la femelle est verdâtre clair sur les deux faces.
+Un point discoïdal brun marque chaque aile sur le revers, alors que c'est un point rouge sur le recto.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Farineuse</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Farineuse</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Chenille</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pondus en début de printemps, les œufs jaunes à vert clair éclosent pour donner des chenilles vertes.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Farineuse</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Farineuse</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Farineuse vole dès son éclosion en mai à juin, en une génération puis après son hivernation.
+Elle pratique dans les régions sèches une migration verticale entre le maquis et les sapinières de montagne. Elle émerge au printemps en plaine puis migre en altitude dans la montagne et y reste les mois d'été pour redescendre à l'automne en basse altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Farineuse</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Farineuse</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les plantes hôtes de sa chenille sont des Rhamnus.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Farineuse</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Farineuse</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t xml:space="preserve">La Farineuse est présente  des côtes de l'Adriatique (Grèce, Bulgarie) jusqu'à l'Asie mineure (Syrie, Iran).
-Biotope
-La Farineuse occupe les lieux pierreux incultes jusqu'à 2 000 m.
-Protection
-C'est une espèce vulnérable qui n'a pas de statut de protection particulier.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Farineuse</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Farineuse</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Farineuse occupe les lieux pierreux incultes jusqu'à 2 000 m.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Farineuse</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Farineuse</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une espèce vulnérable qui n'a pas de statut de protection particulier.
 </t>
         </is>
       </c>
